--- a/debug and tests/debug.xlsx
+++ b/debug and tests/debug.xlsx
@@ -47,12 +47,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="0000FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -101,10 +101,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,114 +511,306 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Медкомплекс АВК</t>
+          <t>НВ-Лаб</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>ГП-10 СПУ</t>
+          <t>Альтаир 200</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>20250</v>
+        <v>89100</v>
       </c>
       <c r="D2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Промэколаб</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 200</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>99800</v>
+      </c>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Экохим</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 200</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>127500</v>
+      </c>
+      <c r="D4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Промэколаб</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 200</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>153000</v>
+      </c>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Прайм</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>80325</v>
+      </c>
+      <c r="D6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Прайм</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>122010</v>
+      </c>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
           <t>НВ-Лаб</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>ГП-10 СПУ</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>29680</v>
-      </c>
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>СКТБ</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>ГП-10 СПУ</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>33560</v>
-      </c>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Медкомплекс АВК</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>ГП-20 СПУ</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>31250</v>
-      </c>
-      <c r="D5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>СКТБ</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>ГП-20 СПУ</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>33060</v>
-      </c>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Медкомплекс АВК</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Термостат НТ-120</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>25860</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Альтаир 300</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>127670</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>ЗОМЗ</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>129680</v>
+      </c>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Промэколаб</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>143000</v>
+      </c>
+      <c r="D10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Экохим</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>185300</v>
+      </c>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Электронприбор</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>187000</v>
+      </c>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Электронприбор</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>220000</v>
+      </c>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Прайм</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300УФ</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>154350</v>
+      </c>
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>НОВАПРИБОР</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300УФ</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>176000</v>
+      </c>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>НВ-Лаб</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Термостат НТ-120</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>25860</v>
-      </c>
-      <c r="D8" s="3" t="n"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Альтаир 300УФ</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>212930</v>
+      </c>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Прайм</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300УФ</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>225225</v>
+      </c>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Эковью</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300УФ</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>238500</v>
+      </c>
+      <c r="D18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Экохим</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300УФ</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>283900</v>
+      </c>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Электронприбор</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Альтаир 300УФ</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>374000</v>
+      </c>
+      <c r="D20" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
